--- a/medicine/Œil et vue/Punctum_remotum/Punctum_remotum.xlsx
+++ b/medicine/Œil et vue/Punctum_remotum/Punctum_remotum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le punctum remotum est le conjugué de la fovea de la rétine à travers l'œil quand celui-ci n'accommode pas. C'est-à-dire que c'est le point le plus éloigné que l'œil puisse voir net sans mettre en jeu son accommodation.
 La distance entre le punctum remotum et le punctum proximum nous permet de connaître l'accommodation maximale d'un sujet.
